--- a/Parliamentary_data/hansard_full.xlsx
+++ b/Parliamentary_data/hansard_full.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/khem480/Documents/GitHub/LLM-1h-workshop-repository/Parliamentary_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E224698F-3600-6A45-81E0-1C0529D1560F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43A36494-1DE0-A14A-94C4-2A0078A6FB27}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="13180" yWindow="7320" windowWidth="39420" windowHeight="18860" xr2:uid="{E90A28B9-696B-C74D-8E02-EDD440193CB0}"/>
   </bookViews>
@@ -2116,16 +2116,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D2BB3080-F62C-E547-BD6B-DD595C818CD3}">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:D284"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H37" sqref="H37"/>
+    <sheetView tabSelected="1" topLeftCell="A239" workbookViewId="0">
+      <selection activeCell="H267" sqref="H267"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="168.33203125" customWidth="1"/>
-    <col min="2" max="2" width="21.1640625" customWidth="1"/>
+    <col min="1" max="1" width="86.1640625" customWidth="1"/>
+    <col min="2" max="2" width="15.5" customWidth="1"/>
     <col min="3" max="3" width="22.83203125" customWidth="1"/>
   </cols>
   <sheetData>
@@ -2143,7 +2144,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -2157,7 +2158,7 @@
         <v>2010</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>248</v>
       </c>
@@ -2171,7 +2172,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -2185,7 +2186,7 @@
         <v>2010</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>226</v>
       </c>
@@ -2199,7 +2200,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>181</v>
       </c>
@@ -2213,7 +2214,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>11</v>
       </c>
@@ -2227,7 +2228,7 @@
         <v>2010</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>12</v>
       </c>
@@ -2241,7 +2242,7 @@
         <v>2010</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>14</v>
       </c>
@@ -2255,7 +2256,7 @@
         <v>2010</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>15</v>
       </c>
@@ -2269,7 +2270,7 @@
         <v>2010</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>16</v>
       </c>
@@ -2283,7 +2284,7 @@
         <v>2010</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>17</v>
       </c>
@@ -2297,7 +2298,7 @@
         <v>2010</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>163</v>
       </c>
@@ -2311,7 +2312,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>20</v>
       </c>
@@ -2325,7 +2326,7 @@
         <v>2010</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>21</v>
       </c>
@@ -2339,7 +2340,7 @@
         <v>2010</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>22</v>
       </c>
@@ -2353,7 +2354,7 @@
         <v>2010</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>23</v>
       </c>
@@ -2367,7 +2368,7 @@
         <v>2010</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>24</v>
       </c>
@@ -2381,7 +2382,7 @@
         <v>2010</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>25</v>
       </c>
@@ -2395,7 +2396,7 @@
         <v>2010</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>26</v>
       </c>
@@ -2409,7 +2410,7 @@
         <v>2010</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>27</v>
       </c>
@@ -2423,7 +2424,7 @@
         <v>2010</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>28</v>
       </c>
@@ -2437,7 +2438,7 @@
         <v>2010</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>30</v>
       </c>
@@ -2451,7 +2452,7 @@
         <v>2010</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>31</v>
       </c>
@@ -2465,7 +2466,7 @@
         <v>2010</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>165</v>
       </c>
@@ -2479,7 +2480,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>34</v>
       </c>
@@ -2493,10 +2494,13 @@
         <v>2010</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>35</v>
       </c>
+      <c r="B27">
+        <v>0</v>
+      </c>
       <c r="C27" t="s">
         <v>32</v>
       </c>
@@ -2504,7 +2508,7 @@
         <v>2010</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>91</v>
       </c>
@@ -2518,7 +2522,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>300</v>
       </c>
@@ -2532,7 +2536,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>39</v>
       </c>
@@ -2546,7 +2550,7 @@
         <v>2010</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>41</v>
       </c>
@@ -2560,7 +2564,7 @@
         <v>2010</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>42</v>
       </c>
@@ -2574,7 +2578,7 @@
         <v>2010</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>43</v>
       </c>
@@ -2588,7 +2592,7 @@
         <v>2010</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>44</v>
       </c>
@@ -2602,7 +2606,7 @@
         <v>2010</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>45</v>
       </c>
@@ -2616,7 +2620,7 @@
         <v>2010</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>46</v>
       </c>
@@ -2630,7 +2634,7 @@
         <v>2010</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>250</v>
       </c>
@@ -2644,7 +2648,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>49</v>
       </c>
@@ -2658,7 +2662,7 @@
         <v>2010</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>50</v>
       </c>
@@ -2672,7 +2676,7 @@
         <v>2010</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>51</v>
       </c>
@@ -2686,7 +2690,7 @@
         <v>2010</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>53</v>
       </c>
@@ -2700,7 +2704,7 @@
         <v>2010</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>54</v>
       </c>
@@ -2714,7 +2718,7 @@
         <v>2010</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>7</v>
       </c>
@@ -2728,7 +2732,7 @@
         <v>2010</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>57</v>
       </c>
@@ -2742,7 +2746,7 @@
         <v>2010</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>58</v>
       </c>
@@ -2756,7 +2760,7 @@
         <v>2010</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>59</v>
       </c>
@@ -2770,7 +2774,7 @@
         <v>2010</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>60</v>
       </c>
@@ -2784,7 +2788,7 @@
         <v>2010</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>61</v>
       </c>
@@ -2798,7 +2802,7 @@
         <v>2010</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>63</v>
       </c>
@@ -2812,7 +2816,7 @@
         <v>2010</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>64</v>
       </c>
@@ -2826,7 +2830,7 @@
         <v>2010</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>65</v>
       </c>
@@ -2840,7 +2844,7 @@
         <v>2010</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>66</v>
       </c>
@@ -2854,7 +2858,7 @@
         <v>2010</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>68</v>
       </c>
@@ -2868,7 +2872,7 @@
         <v>2010</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>69</v>
       </c>
@@ -2882,7 +2886,7 @@
         <v>2010</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>71</v>
       </c>
@@ -2896,7 +2900,7 @@
         <v>2010</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>73</v>
       </c>
@@ -2910,7 +2914,7 @@
         <v>2010</v>
       </c>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>75</v>
       </c>
@@ -2924,7 +2928,7 @@
         <v>2010</v>
       </c>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>77</v>
       </c>
@@ -2938,7 +2942,7 @@
         <v>2010</v>
       </c>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>79</v>
       </c>
@@ -2952,7 +2956,7 @@
         <v>2010</v>
       </c>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>81</v>
       </c>
@@ -2966,7 +2970,7 @@
         <v>2010</v>
       </c>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>158</v>
       </c>
@@ -2980,10 +2984,13 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>85</v>
       </c>
+      <c r="B62">
+        <v>0</v>
+      </c>
       <c r="C62" t="s">
         <v>84</v>
       </c>
@@ -2991,10 +2998,13 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>86</v>
       </c>
+      <c r="B63">
+        <v>0</v>
+      </c>
       <c r="C63" t="s">
         <v>36</v>
       </c>
@@ -3002,10 +3012,13 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>87</v>
       </c>
+      <c r="B64">
+        <v>0</v>
+      </c>
       <c r="C64" t="s">
         <v>84</v>
       </c>
@@ -3013,10 +3026,13 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>89</v>
       </c>
+      <c r="B65">
+        <v>0</v>
+      </c>
       <c r="C65" t="s">
         <v>88</v>
       </c>
@@ -3024,7 +3040,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>173</v>
       </c>
@@ -3042,6 +3058,9 @@
       <c r="A67" t="s">
         <v>92</v>
       </c>
+      <c r="B67">
+        <v>0</v>
+      </c>
       <c r="C67" t="s">
         <v>88</v>
       </c>
@@ -3053,6 +3072,9 @@
       <c r="A68" t="s">
         <v>93</v>
       </c>
+      <c r="B68">
+        <v>0</v>
+      </c>
       <c r="C68" t="s">
         <v>90</v>
       </c>
@@ -3064,6 +3086,9 @@
       <c r="A69" t="s">
         <v>94</v>
       </c>
+      <c r="B69">
+        <v>0</v>
+      </c>
       <c r="C69" t="s">
         <v>88</v>
       </c>
@@ -3075,6 +3100,9 @@
       <c r="A70" t="s">
         <v>95</v>
       </c>
+      <c r="B70">
+        <v>0</v>
+      </c>
       <c r="C70" t="s">
         <v>90</v>
       </c>
@@ -3082,7 +3110,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>185</v>
       </c>
@@ -3100,6 +3128,9 @@
       <c r="A72" t="s">
         <v>97</v>
       </c>
+      <c r="B72">
+        <v>0</v>
+      </c>
       <c r="C72" t="s">
         <v>90</v>
       </c>
@@ -3111,6 +3142,9 @@
       <c r="A73" t="s">
         <v>98</v>
       </c>
+      <c r="B73">
+        <v>0</v>
+      </c>
       <c r="C73" t="s">
         <v>88</v>
       </c>
@@ -3122,6 +3156,9 @@
       <c r="A74" t="s">
         <v>99</v>
       </c>
+      <c r="B74">
+        <v>0</v>
+      </c>
       <c r="C74" t="s">
         <v>90</v>
       </c>
@@ -3133,6 +3170,9 @@
       <c r="A75" t="s">
         <v>100</v>
       </c>
+      <c r="B75">
+        <v>0</v>
+      </c>
       <c r="C75" t="s">
         <v>36</v>
       </c>
@@ -3144,6 +3184,9 @@
       <c r="A76" t="s">
         <v>101</v>
       </c>
+      <c r="B76">
+        <v>0</v>
+      </c>
       <c r="C76" t="s">
         <v>88</v>
       </c>
@@ -3155,6 +3198,9 @@
       <c r="A77" t="s">
         <v>102</v>
       </c>
+      <c r="B77">
+        <v>0</v>
+      </c>
       <c r="C77" t="s">
         <v>90</v>
       </c>
@@ -3166,6 +3212,9 @@
       <c r="A78" t="s">
         <v>103</v>
       </c>
+      <c r="B78">
+        <v>0</v>
+      </c>
       <c r="C78" t="s">
         <v>88</v>
       </c>
@@ -3177,6 +3226,9 @@
       <c r="A79" t="s">
         <v>104</v>
       </c>
+      <c r="B79">
+        <v>0</v>
+      </c>
       <c r="C79" t="s">
         <v>90</v>
       </c>
@@ -3188,6 +3240,9 @@
       <c r="A80" t="s">
         <v>105</v>
       </c>
+      <c r="B80">
+        <v>0</v>
+      </c>
       <c r="C80" t="s">
         <v>36</v>
       </c>
@@ -3199,6 +3254,9 @@
       <c r="A81" t="s">
         <v>106</v>
       </c>
+      <c r="B81">
+        <v>0</v>
+      </c>
       <c r="C81" t="s">
         <v>90</v>
       </c>
@@ -3210,6 +3268,9 @@
       <c r="A82" t="s">
         <v>107</v>
       </c>
+      <c r="B82">
+        <v>0</v>
+      </c>
       <c r="C82" t="s">
         <v>36</v>
       </c>
@@ -3221,6 +3282,9 @@
       <c r="A83" t="s">
         <v>108</v>
       </c>
+      <c r="B83">
+        <v>0</v>
+      </c>
       <c r="C83" t="s">
         <v>90</v>
       </c>
@@ -3232,6 +3296,9 @@
       <c r="A84" t="s">
         <v>109</v>
       </c>
+      <c r="B84">
+        <v>0</v>
+      </c>
       <c r="C84" t="s">
         <v>36</v>
       </c>
@@ -3243,6 +3310,9 @@
       <c r="A85" t="s">
         <v>111</v>
       </c>
+      <c r="B85">
+        <v>0</v>
+      </c>
       <c r="C85" t="s">
         <v>110</v>
       </c>
@@ -3254,6 +3324,9 @@
       <c r="A86" t="s">
         <v>113</v>
       </c>
+      <c r="B86">
+        <v>0</v>
+      </c>
       <c r="C86" t="s">
         <v>112</v>
       </c>
@@ -3265,6 +3338,9 @@
       <c r="A87" t="s">
         <v>115</v>
       </c>
+      <c r="B87">
+        <v>0</v>
+      </c>
       <c r="C87" t="s">
         <v>114</v>
       </c>
@@ -3272,7 +3348,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
         <v>117</v>
       </c>
@@ -3286,7 +3362,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
         <v>96</v>
       </c>
@@ -3304,6 +3380,9 @@
       <c r="A90" t="s">
         <v>118</v>
       </c>
+      <c r="B90">
+        <v>0</v>
+      </c>
       <c r="C90" t="s">
         <v>112</v>
       </c>
@@ -3315,6 +3394,9 @@
       <c r="A91" t="s">
         <v>120</v>
       </c>
+      <c r="B91">
+        <v>0</v>
+      </c>
       <c r="C91" t="s">
         <v>119</v>
       </c>
@@ -3326,6 +3408,9 @@
       <c r="A92" t="s">
         <v>121</v>
       </c>
+      <c r="B92">
+        <v>0</v>
+      </c>
       <c r="C92" t="s">
         <v>36</v>
       </c>
@@ -3337,6 +3422,9 @@
       <c r="A93" t="s">
         <v>122</v>
       </c>
+      <c r="B93">
+        <v>0</v>
+      </c>
       <c r="C93" t="s">
         <v>114</v>
       </c>
@@ -3348,6 +3436,9 @@
       <c r="A94" t="s">
         <v>123</v>
       </c>
+      <c r="B94">
+        <v>0</v>
+      </c>
       <c r="C94" t="s">
         <v>112</v>
       </c>
@@ -3359,6 +3450,9 @@
       <c r="A95" t="s">
         <v>124</v>
       </c>
+      <c r="B95">
+        <v>0</v>
+      </c>
       <c r="C95" t="s">
         <v>114</v>
       </c>
@@ -3370,6 +3464,9 @@
       <c r="A96" t="s">
         <v>125</v>
       </c>
+      <c r="B96">
+        <v>0</v>
+      </c>
       <c r="C96" t="s">
         <v>112</v>
       </c>
@@ -3381,6 +3478,9 @@
       <c r="A97" t="s">
         <v>126</v>
       </c>
+      <c r="B97">
+        <v>0</v>
+      </c>
       <c r="C97" t="s">
         <v>114</v>
       </c>
@@ -3392,6 +3492,9 @@
       <c r="A98" t="s">
         <v>127</v>
       </c>
+      <c r="B98">
+        <v>0</v>
+      </c>
       <c r="C98" t="s">
         <v>112</v>
       </c>
@@ -3403,6 +3506,9 @@
       <c r="A99" t="s">
         <v>128</v>
       </c>
+      <c r="B99">
+        <v>0</v>
+      </c>
       <c r="C99" t="s">
         <v>114</v>
       </c>
@@ -3414,6 +3520,9 @@
       <c r="A100" t="s">
         <v>129</v>
       </c>
+      <c r="B100">
+        <v>0</v>
+      </c>
       <c r="C100" t="s">
         <v>112</v>
       </c>
@@ -3425,6 +3534,9 @@
       <c r="A101" t="s">
         <v>131</v>
       </c>
+      <c r="B101">
+        <v>0</v>
+      </c>
       <c r="C101" t="s">
         <v>130</v>
       </c>
@@ -3436,6 +3548,9 @@
       <c r="A102" t="s">
         <v>132</v>
       </c>
+      <c r="B102">
+        <v>0</v>
+      </c>
       <c r="C102" t="s">
         <v>112</v>
       </c>
@@ -3447,6 +3562,9 @@
       <c r="A103" t="s">
         <v>134</v>
       </c>
+      <c r="B103">
+        <v>0</v>
+      </c>
       <c r="C103" t="s">
         <v>133</v>
       </c>
@@ -3458,6 +3576,9 @@
       <c r="A104" t="s">
         <v>135</v>
       </c>
+      <c r="B104">
+        <v>0</v>
+      </c>
       <c r="C104" t="s">
         <v>112</v>
       </c>
@@ -3469,6 +3590,9 @@
       <c r="A105" t="s">
         <v>136</v>
       </c>
+      <c r="B105">
+        <v>0</v>
+      </c>
       <c r="C105" t="s">
         <v>133</v>
       </c>
@@ -3476,7 +3600,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
         <v>33</v>
       </c>
@@ -3494,6 +3618,9 @@
       <c r="A107" t="s">
         <v>138</v>
       </c>
+      <c r="B107">
+        <v>0</v>
+      </c>
       <c r="C107" t="s">
         <v>133</v>
       </c>
@@ -3505,6 +3632,9 @@
       <c r="A108" t="s">
         <v>139</v>
       </c>
+      <c r="B108">
+        <v>0</v>
+      </c>
       <c r="C108" t="s">
         <v>112</v>
       </c>
@@ -3516,6 +3646,9 @@
       <c r="A109" t="s">
         <v>141</v>
       </c>
+      <c r="B109">
+        <v>0</v>
+      </c>
       <c r="C109" t="s">
         <v>140</v>
       </c>
@@ -3527,6 +3660,9 @@
       <c r="A110" t="s">
         <v>142</v>
       </c>
+      <c r="B110">
+        <v>0</v>
+      </c>
       <c r="C110" t="s">
         <v>112</v>
       </c>
@@ -3538,6 +3674,9 @@
       <c r="A111" t="s">
         <v>143</v>
       </c>
+      <c r="B111">
+        <v>0</v>
+      </c>
       <c r="C111" t="s">
         <v>36</v>
       </c>
@@ -3549,6 +3688,9 @@
       <c r="A112" t="s">
         <v>145</v>
       </c>
+      <c r="B112">
+        <v>0</v>
+      </c>
       <c r="C112" t="s">
         <v>144</v>
       </c>
@@ -3560,6 +3702,9 @@
       <c r="A113" t="s">
         <v>146</v>
       </c>
+      <c r="B113">
+        <v>0</v>
+      </c>
       <c r="C113" t="s">
         <v>112</v>
       </c>
@@ -3571,6 +3716,9 @@
       <c r="A114" t="s">
         <v>148</v>
       </c>
+      <c r="B114">
+        <v>0</v>
+      </c>
       <c r="C114" t="s">
         <v>147</v>
       </c>
@@ -3582,6 +3730,9 @@
       <c r="A115" t="s">
         <v>149</v>
       </c>
+      <c r="B115">
+        <v>0</v>
+      </c>
       <c r="C115" t="s">
         <v>112</v>
       </c>
@@ -3589,7 +3740,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="116" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
         <v>38</v>
       </c>
@@ -3607,6 +3758,9 @@
       <c r="A117" t="s">
         <v>151</v>
       </c>
+      <c r="B117">
+        <v>0</v>
+      </c>
       <c r="C117" t="s">
         <v>112</v>
       </c>
@@ -3618,6 +3772,9 @@
       <c r="A118" t="s">
         <v>152</v>
       </c>
+      <c r="B118">
+        <v>0</v>
+      </c>
       <c r="C118" t="s">
         <v>147</v>
       </c>
@@ -3629,6 +3786,9 @@
       <c r="A119" t="s">
         <v>153</v>
       </c>
+      <c r="B119">
+        <v>0</v>
+      </c>
       <c r="C119" t="s">
         <v>112</v>
       </c>
@@ -3640,6 +3800,9 @@
       <c r="A120" t="s">
         <v>154</v>
       </c>
+      <c r="B120">
+        <v>0</v>
+      </c>
       <c r="C120" t="s">
         <v>147</v>
       </c>
@@ -3651,6 +3814,9 @@
       <c r="A121" t="s">
         <v>155</v>
       </c>
+      <c r="B121">
+        <v>0</v>
+      </c>
       <c r="C121" t="s">
         <v>36</v>
       </c>
@@ -3662,6 +3828,9 @@
       <c r="A122" t="s">
         <v>156</v>
       </c>
+      <c r="B122">
+        <v>0</v>
+      </c>
       <c r="C122" t="s">
         <v>112</v>
       </c>
@@ -3673,6 +3842,9 @@
       <c r="A123" t="s">
         <v>157</v>
       </c>
+      <c r="B123">
+        <v>0</v>
+      </c>
       <c r="C123" t="s">
         <v>36</v>
       </c>
@@ -3680,7 +3852,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="124" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
         <v>9</v>
       </c>
@@ -3698,6 +3870,9 @@
       <c r="A125" t="s">
         <v>159</v>
       </c>
+      <c r="B125">
+        <v>0</v>
+      </c>
       <c r="C125" t="s">
         <v>10</v>
       </c>
@@ -3709,6 +3884,9 @@
       <c r="A126" t="s">
         <v>160</v>
       </c>
+      <c r="B126">
+        <v>0</v>
+      </c>
       <c r="C126" t="s">
         <v>10</v>
       </c>
@@ -3720,6 +3898,9 @@
       <c r="A127" t="s">
         <v>161</v>
       </c>
+      <c r="B127">
+        <v>0</v>
+      </c>
       <c r="C127" t="s">
         <v>10</v>
       </c>
@@ -3727,7 +3908,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="128" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
         <v>393</v>
       </c>
@@ -3741,7 +3922,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="129" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
         <v>395</v>
       </c>
@@ -3759,6 +3940,9 @@
       <c r="A130" t="s">
         <v>166</v>
       </c>
+      <c r="B130">
+        <v>0</v>
+      </c>
       <c r="C130" t="s">
         <v>162</v>
       </c>
@@ -3770,6 +3954,9 @@
       <c r="A131" t="s">
         <v>167</v>
       </c>
+      <c r="B131">
+        <v>0</v>
+      </c>
       <c r="C131" t="s">
         <v>164</v>
       </c>
@@ -3781,6 +3968,9 @@
       <c r="A132" t="s">
         <v>168</v>
       </c>
+      <c r="B132">
+        <v>0</v>
+      </c>
       <c r="C132" t="s">
         <v>164</v>
       </c>
@@ -3792,6 +3982,9 @@
       <c r="A133" t="s">
         <v>169</v>
       </c>
+      <c r="B133">
+        <v>0</v>
+      </c>
       <c r="C133" t="s">
         <v>164</v>
       </c>
@@ -3803,6 +3996,9 @@
       <c r="A134" t="s">
         <v>171</v>
       </c>
+      <c r="B134">
+        <v>0</v>
+      </c>
       <c r="C134" t="s">
         <v>170</v>
       </c>
@@ -3810,7 +4006,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="135" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
         <v>4</v>
       </c>
@@ -3828,6 +4024,9 @@
       <c r="A136" t="s">
         <v>175</v>
       </c>
+      <c r="B136">
+        <v>0</v>
+      </c>
       <c r="C136" t="s">
         <v>174</v>
       </c>
@@ -3839,6 +4038,9 @@
       <c r="A137" t="s">
         <v>177</v>
       </c>
+      <c r="B137">
+        <v>0</v>
+      </c>
       <c r="C137" t="s">
         <v>176</v>
       </c>
@@ -3850,6 +4052,9 @@
       <c r="A138" t="s">
         <v>179</v>
       </c>
+      <c r="B138">
+        <v>0</v>
+      </c>
       <c r="C138" t="s">
         <v>178</v>
       </c>
@@ -3857,7 +4062,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="139" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
         <v>318</v>
       </c>
@@ -3875,6 +4080,9 @@
       <c r="A140" t="s">
         <v>183</v>
       </c>
+      <c r="B140">
+        <v>0</v>
+      </c>
       <c r="C140" t="s">
         <v>182</v>
       </c>
@@ -3882,7 +4090,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="141" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A141" t="s">
         <v>320</v>
       </c>
@@ -3900,6 +4108,9 @@
       <c r="A142" t="s">
         <v>187</v>
       </c>
+      <c r="B142">
+        <v>0</v>
+      </c>
       <c r="C142" t="s">
         <v>186</v>
       </c>
@@ -3911,6 +4122,9 @@
       <c r="A143" t="s">
         <v>189</v>
       </c>
+      <c r="B143">
+        <v>0</v>
+      </c>
       <c r="C143" t="s">
         <v>188</v>
       </c>
@@ -3922,6 +4136,9 @@
       <c r="A144" t="s">
         <v>191</v>
       </c>
+      <c r="B144">
+        <v>0</v>
+      </c>
       <c r="C144" t="s">
         <v>190</v>
       </c>
@@ -3933,6 +4150,9 @@
       <c r="A145" t="s">
         <v>193</v>
       </c>
+      <c r="B145">
+        <v>0</v>
+      </c>
       <c r="C145" t="s">
         <v>192</v>
       </c>
@@ -3944,6 +4164,9 @@
       <c r="A146" t="s">
         <v>195</v>
       </c>
+      <c r="B146">
+        <v>0</v>
+      </c>
       <c r="C146" t="s">
         <v>194</v>
       </c>
@@ -3955,6 +4178,9 @@
       <c r="A147" t="s">
         <v>196</v>
       </c>
+      <c r="B147">
+        <v>0</v>
+      </c>
       <c r="C147" t="s">
         <v>82</v>
       </c>
@@ -3966,6 +4192,9 @@
       <c r="A148" t="s">
         <v>198</v>
       </c>
+      <c r="B148">
+        <v>0</v>
+      </c>
       <c r="C148" t="s">
         <v>197</v>
       </c>
@@ -3973,7 +4202,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="149" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A149" t="s">
         <v>324</v>
       </c>
@@ -3991,6 +4220,9 @@
       <c r="A150" t="s">
         <v>202</v>
       </c>
+      <c r="B150">
+        <v>0</v>
+      </c>
       <c r="C150" t="s">
         <v>201</v>
       </c>
@@ -4002,6 +4234,9 @@
       <c r="A151" t="s">
         <v>204</v>
       </c>
+      <c r="B151">
+        <v>0</v>
+      </c>
       <c r="C151" t="s">
         <v>203</v>
       </c>
@@ -4013,6 +4248,9 @@
       <c r="A152" t="s">
         <v>206</v>
       </c>
+      <c r="B152">
+        <v>0</v>
+      </c>
       <c r="C152" t="s">
         <v>205</v>
       </c>
@@ -4020,7 +4258,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="153" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A153" t="s">
         <v>83</v>
       </c>
@@ -4038,6 +4276,9 @@
       <c r="A154" t="s">
         <v>210</v>
       </c>
+      <c r="B154">
+        <v>0</v>
+      </c>
       <c r="C154" t="s">
         <v>209</v>
       </c>
@@ -4049,6 +4290,9 @@
       <c r="A155" t="s">
         <v>212</v>
       </c>
+      <c r="B155">
+        <v>0</v>
+      </c>
       <c r="C155" t="s">
         <v>211</v>
       </c>
@@ -4060,6 +4304,9 @@
       <c r="A156" t="s">
         <v>214</v>
       </c>
+      <c r="B156">
+        <v>0</v>
+      </c>
       <c r="C156" t="s">
         <v>213</v>
       </c>
@@ -4067,7 +4314,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="157" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A157" t="s">
         <v>230</v>
       </c>
@@ -4081,7 +4328,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="158" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A158" t="s">
         <v>218</v>
       </c>
@@ -4099,6 +4346,9 @@
       <c r="A159" t="s">
         <v>220</v>
       </c>
+      <c r="B159">
+        <v>0</v>
+      </c>
       <c r="C159" t="s">
         <v>219</v>
       </c>
@@ -4110,6 +4360,9 @@
       <c r="A160" t="s">
         <v>222</v>
       </c>
+      <c r="B160">
+        <v>0</v>
+      </c>
       <c r="C160" t="s">
         <v>221</v>
       </c>
@@ -4121,6 +4374,9 @@
       <c r="A161" t="s">
         <v>224</v>
       </c>
+      <c r="B161">
+        <v>0</v>
+      </c>
       <c r="C161" t="s">
         <v>223</v>
       </c>
@@ -4128,7 +4384,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="162" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A162" t="s">
         <v>216</v>
       </c>
@@ -4146,6 +4402,9 @@
       <c r="A163" t="s">
         <v>228</v>
       </c>
+      <c r="B163">
+        <v>0</v>
+      </c>
       <c r="C163" t="s">
         <v>227</v>
       </c>
@@ -4153,7 +4412,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="164" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A164" t="s">
         <v>274</v>
       </c>
@@ -4171,6 +4430,9 @@
       <c r="A165" t="s">
         <v>232</v>
       </c>
+      <c r="B165">
+        <v>0</v>
+      </c>
       <c r="C165" t="s">
         <v>231</v>
       </c>
@@ -4182,6 +4444,9 @@
       <c r="A166" t="s">
         <v>234</v>
       </c>
+      <c r="B166">
+        <v>0</v>
+      </c>
       <c r="C166" t="s">
         <v>233</v>
       </c>
@@ -4193,6 +4458,9 @@
       <c r="A167" t="s">
         <v>236</v>
       </c>
+      <c r="B167">
+        <v>0</v>
+      </c>
       <c r="C167" t="s">
         <v>235</v>
       </c>
@@ -4204,6 +4472,9 @@
       <c r="A168" t="s">
         <v>238</v>
       </c>
+      <c r="B168">
+        <v>0</v>
+      </c>
       <c r="C168" t="s">
         <v>237</v>
       </c>
@@ -4215,6 +4486,9 @@
       <c r="A169" t="s">
         <v>240</v>
       </c>
+      <c r="B169">
+        <v>0</v>
+      </c>
       <c r="C169" t="s">
         <v>239</v>
       </c>
@@ -4226,6 +4500,9 @@
       <c r="A170" t="s">
         <v>242</v>
       </c>
+      <c r="B170">
+        <v>0</v>
+      </c>
       <c r="C170" t="s">
         <v>241</v>
       </c>
@@ -4237,6 +4514,9 @@
       <c r="A171" t="s">
         <v>244</v>
       </c>
+      <c r="B171">
+        <v>0</v>
+      </c>
       <c r="C171" t="s">
         <v>243</v>
       </c>
@@ -4248,6 +4528,9 @@
       <c r="A172" t="s">
         <v>246</v>
       </c>
+      <c r="B172">
+        <v>0</v>
+      </c>
       <c r="C172" t="s">
         <v>245</v>
       </c>
@@ -4255,7 +4538,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="173" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A173" t="s">
         <v>359</v>
       </c>
@@ -4269,7 +4552,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="174" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A174" t="s">
         <v>116</v>
       </c>
@@ -4287,6 +4570,9 @@
       <c r="A175" t="s">
         <v>252</v>
       </c>
+      <c r="B175">
+        <v>0</v>
+      </c>
       <c r="C175" t="s">
         <v>251</v>
       </c>
@@ -4294,7 +4580,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="176" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A176" t="s">
         <v>137</v>
       </c>
@@ -4312,6 +4598,9 @@
       <c r="A177" t="s">
         <v>256</v>
       </c>
+      <c r="B177">
+        <v>0</v>
+      </c>
       <c r="C177" t="s">
         <v>255</v>
       </c>
@@ -4319,7 +4608,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="178" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A178" t="s">
         <v>48</v>
       </c>
@@ -4333,7 +4622,7 @@
         <v>2010</v>
       </c>
     </row>
-    <row r="179" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A179" t="s">
         <v>56</v>
       </c>
@@ -4351,6 +4640,9 @@
       <c r="A180" t="s">
         <v>262</v>
       </c>
+      <c r="B180">
+        <v>0</v>
+      </c>
       <c r="C180" t="s">
         <v>261</v>
       </c>
@@ -4362,6 +4654,9 @@
       <c r="A181" t="s">
         <v>264</v>
       </c>
+      <c r="B181">
+        <v>0</v>
+      </c>
       <c r="C181" t="s">
         <v>263</v>
       </c>
@@ -4373,6 +4668,9 @@
       <c r="A182" t="s">
         <v>266</v>
       </c>
+      <c r="B182">
+        <v>0</v>
+      </c>
       <c r="C182" t="s">
         <v>265</v>
       </c>
@@ -4384,6 +4682,9 @@
       <c r="A183" t="s">
         <v>268</v>
       </c>
+      <c r="B183">
+        <v>0</v>
+      </c>
       <c r="C183" t="s">
         <v>267</v>
       </c>
@@ -4395,6 +4696,9 @@
       <c r="A184" t="s">
         <v>270</v>
       </c>
+      <c r="B184">
+        <v>0</v>
+      </c>
       <c r="C184" t="s">
         <v>269</v>
       </c>
@@ -4402,7 +4706,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="185" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A185" t="s">
         <v>254</v>
       </c>
@@ -4416,7 +4720,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="186" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A186" t="s">
         <v>272</v>
       </c>
@@ -4434,6 +4738,9 @@
       <c r="A187" t="s">
         <v>276</v>
       </c>
+      <c r="B187">
+        <v>0</v>
+      </c>
       <c r="C187" t="s">
         <v>275</v>
       </c>
@@ -4445,6 +4752,9 @@
       <c r="A188" t="s">
         <v>278</v>
       </c>
+      <c r="B188">
+        <v>0</v>
+      </c>
       <c r="C188" t="s">
         <v>277</v>
       </c>
@@ -4456,6 +4766,9 @@
       <c r="A189" t="s">
         <v>280</v>
       </c>
+      <c r="B189">
+        <v>0</v>
+      </c>
       <c r="C189" t="s">
         <v>279</v>
       </c>
@@ -4467,6 +4780,9 @@
       <c r="A190" t="s">
         <v>282</v>
       </c>
+      <c r="B190">
+        <v>0</v>
+      </c>
       <c r="C190" t="s">
         <v>281</v>
       </c>
@@ -4478,6 +4794,9 @@
       <c r="A191" t="s">
         <v>284</v>
       </c>
+      <c r="B191">
+        <v>0</v>
+      </c>
       <c r="C191" t="s">
         <v>283</v>
       </c>
@@ -4489,6 +4808,9 @@
       <c r="A192" t="s">
         <v>286</v>
       </c>
+      <c r="B192">
+        <v>0</v>
+      </c>
       <c r="C192" t="s">
         <v>285</v>
       </c>
@@ -4500,6 +4822,9 @@
       <c r="A193" t="s">
         <v>288</v>
       </c>
+      <c r="B193">
+        <v>0</v>
+      </c>
       <c r="C193" t="s">
         <v>287</v>
       </c>
@@ -4511,6 +4836,9 @@
       <c r="A194" t="s">
         <v>290</v>
       </c>
+      <c r="B194">
+        <v>0</v>
+      </c>
       <c r="C194" t="s">
         <v>289</v>
       </c>
@@ -4522,6 +4850,9 @@
       <c r="A195" t="s">
         <v>292</v>
       </c>
+      <c r="B195">
+        <v>0</v>
+      </c>
       <c r="C195" t="s">
         <v>291</v>
       </c>
@@ -4529,7 +4860,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="196" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A196" t="s">
         <v>294</v>
       </c>
@@ -4547,6 +4878,9 @@
       <c r="A197" t="s">
         <v>296</v>
       </c>
+      <c r="B197">
+        <v>0</v>
+      </c>
       <c r="C197" t="s">
         <v>295</v>
       </c>
@@ -4558,6 +4892,9 @@
       <c r="A198" t="s">
         <v>298</v>
       </c>
+      <c r="B198">
+        <v>0</v>
+      </c>
       <c r="C198" t="s">
         <v>297</v>
       </c>
@@ -4565,7 +4902,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="199" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A199" t="s">
         <v>258</v>
       </c>
@@ -4583,6 +4920,9 @@
       <c r="A200" t="s">
         <v>302</v>
       </c>
+      <c r="B200">
+        <v>0</v>
+      </c>
       <c r="C200" t="s">
         <v>301</v>
       </c>
@@ -4594,6 +4934,9 @@
       <c r="A201" t="s">
         <v>304</v>
       </c>
+      <c r="B201">
+        <v>0</v>
+      </c>
       <c r="C201" t="s">
         <v>303</v>
       </c>
@@ -4605,6 +4948,9 @@
       <c r="A202" t="s">
         <v>306</v>
       </c>
+      <c r="B202">
+        <v>0</v>
+      </c>
       <c r="C202" t="s">
         <v>305</v>
       </c>
@@ -4616,6 +4962,9 @@
       <c r="A203" t="s">
         <v>307</v>
       </c>
+      <c r="B203">
+        <v>0</v>
+      </c>
       <c r="C203" t="s">
         <v>303</v>
       </c>
@@ -4627,6 +4976,9 @@
       <c r="A204" t="s">
         <v>308</v>
       </c>
+      <c r="B204">
+        <v>0</v>
+      </c>
       <c r="C204" t="s">
         <v>301</v>
       </c>
@@ -4638,6 +4990,9 @@
       <c r="A205" t="s">
         <v>309</v>
       </c>
+      <c r="B205">
+        <v>0</v>
+      </c>
       <c r="C205" t="s">
         <v>164</v>
       </c>
@@ -4649,6 +5004,9 @@
       <c r="A206" t="s">
         <v>310</v>
       </c>
+      <c r="B206">
+        <v>0</v>
+      </c>
       <c r="C206" t="s">
         <v>301</v>
       </c>
@@ -4660,6 +5018,9 @@
       <c r="A207" t="s">
         <v>311</v>
       </c>
+      <c r="B207">
+        <v>0</v>
+      </c>
       <c r="C207" t="s">
         <v>164</v>
       </c>
@@ -4671,6 +5032,9 @@
       <c r="A208" t="s">
         <v>312</v>
       </c>
+      <c r="B208">
+        <v>0</v>
+      </c>
       <c r="C208" t="s">
         <v>301</v>
       </c>
@@ -4682,6 +5046,9 @@
       <c r="A209" t="s">
         <v>313</v>
       </c>
+      <c r="B209">
+        <v>0</v>
+      </c>
       <c r="C209" t="s">
         <v>164</v>
       </c>
@@ -4693,6 +5060,9 @@
       <c r="A210" t="s">
         <v>314</v>
       </c>
+      <c r="B210">
+        <v>0</v>
+      </c>
       <c r="C210" t="s">
         <v>301</v>
       </c>
@@ -4704,6 +5074,9 @@
       <c r="A211" t="s">
         <v>316</v>
       </c>
+      <c r="B211">
+        <v>0</v>
+      </c>
       <c r="C211" t="s">
         <v>315</v>
       </c>
@@ -4711,7 +5084,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="212" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A212" t="s">
         <v>37</v>
       </c>
@@ -4729,6 +5102,9 @@
       <c r="A213" t="s">
         <v>319</v>
       </c>
+      <c r="B213">
+        <v>0</v>
+      </c>
       <c r="C213" t="s">
         <v>315</v>
       </c>
@@ -4736,7 +5112,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="214" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A214" t="s">
         <v>200</v>
       </c>
@@ -4754,6 +5130,9 @@
       <c r="A215" t="s">
         <v>321</v>
       </c>
+      <c r="B215">
+        <v>0</v>
+      </c>
       <c r="C215" t="s">
         <v>315</v>
       </c>
@@ -4765,6 +5144,9 @@
       <c r="A216" t="s">
         <v>322</v>
       </c>
+      <c r="B216">
+        <v>0</v>
+      </c>
       <c r="C216" t="s">
         <v>317</v>
       </c>
@@ -4776,6 +5158,9 @@
       <c r="A217" t="s">
         <v>323</v>
       </c>
+      <c r="B217">
+        <v>0</v>
+      </c>
       <c r="C217" t="s">
         <v>315</v>
       </c>
@@ -4783,7 +5168,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="218" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A218" t="s">
         <v>150</v>
       </c>
@@ -4801,6 +5186,9 @@
       <c r="A219" t="s">
         <v>326</v>
       </c>
+      <c r="B219">
+        <v>0</v>
+      </c>
       <c r="C219" t="s">
         <v>325</v>
       </c>
@@ -4812,6 +5200,9 @@
       <c r="A220" t="s">
         <v>327</v>
       </c>
+      <c r="B220">
+        <v>0</v>
+      </c>
       <c r="C220" t="s">
         <v>317</v>
       </c>
@@ -4823,6 +5214,9 @@
       <c r="A221" t="s">
         <v>328</v>
       </c>
+      <c r="B221">
+        <v>0</v>
+      </c>
       <c r="C221" t="s">
         <v>325</v>
       </c>
@@ -4834,6 +5228,9 @@
       <c r="A222" t="s">
         <v>329</v>
       </c>
+      <c r="B222">
+        <v>0</v>
+      </c>
       <c r="C222" t="s">
         <v>317</v>
       </c>
@@ -4845,6 +5242,9 @@
       <c r="A223" t="s">
         <v>331</v>
       </c>
+      <c r="B223">
+        <v>0</v>
+      </c>
       <c r="C223" t="s">
         <v>330</v>
       </c>
@@ -4856,6 +5256,9 @@
       <c r="A224" t="s">
         <v>332</v>
       </c>
+      <c r="B224">
+        <v>0</v>
+      </c>
       <c r="C224" t="s">
         <v>317</v>
       </c>
@@ -4867,6 +5270,9 @@
       <c r="A225" t="s">
         <v>333</v>
       </c>
+      <c r="B225">
+        <v>0</v>
+      </c>
       <c r="C225" t="s">
         <v>325</v>
       </c>
@@ -4878,6 +5284,9 @@
       <c r="A226" t="s">
         <v>334</v>
       </c>
+      <c r="B226">
+        <v>0</v>
+      </c>
       <c r="C226" t="s">
         <v>317</v>
       </c>
@@ -4889,6 +5298,9 @@
       <c r="A227" t="s">
         <v>335</v>
       </c>
+      <c r="B227">
+        <v>0</v>
+      </c>
       <c r="C227" t="s">
         <v>325</v>
       </c>
@@ -4900,6 +5312,9 @@
       <c r="A228" t="s">
         <v>336</v>
       </c>
+      <c r="B228">
+        <v>0</v>
+      </c>
       <c r="C228" t="s">
         <v>317</v>
       </c>
@@ -4911,6 +5326,9 @@
       <c r="A229" t="s">
         <v>337</v>
       </c>
+      <c r="B229">
+        <v>0</v>
+      </c>
       <c r="C229" t="s">
         <v>325</v>
       </c>
@@ -4922,6 +5340,9 @@
       <c r="A230" t="s">
         <v>338</v>
       </c>
+      <c r="B230">
+        <v>0</v>
+      </c>
       <c r="C230" t="s">
         <v>317</v>
       </c>
@@ -4933,6 +5354,9 @@
       <c r="A231" t="s">
         <v>339</v>
       </c>
+      <c r="B231">
+        <v>0</v>
+      </c>
       <c r="C231" t="s">
         <v>325</v>
       </c>
@@ -4944,6 +5368,9 @@
       <c r="A232" t="s">
         <v>340</v>
       </c>
+      <c r="B232">
+        <v>0</v>
+      </c>
       <c r="C232" t="s">
         <v>317</v>
       </c>
@@ -4955,6 +5382,9 @@
       <c r="A233" t="s">
         <v>341</v>
       </c>
+      <c r="B233">
+        <v>0</v>
+      </c>
       <c r="C233" t="s">
         <v>325</v>
       </c>
@@ -4966,6 +5396,9 @@
       <c r="A234" t="s">
         <v>342</v>
       </c>
+      <c r="B234">
+        <v>0</v>
+      </c>
       <c r="C234" t="s">
         <v>317</v>
       </c>
@@ -4977,6 +5410,9 @@
       <c r="A235" t="s">
         <v>343</v>
       </c>
+      <c r="B235">
+        <v>0</v>
+      </c>
       <c r="C235" t="s">
         <v>325</v>
       </c>
@@ -4988,6 +5424,9 @@
       <c r="A236" t="s">
         <v>344</v>
       </c>
+      <c r="B236">
+        <v>0</v>
+      </c>
       <c r="C236" t="s">
         <v>317</v>
       </c>
@@ -4999,6 +5438,9 @@
       <c r="A237" t="s">
         <v>345</v>
       </c>
+      <c r="B237">
+        <v>0</v>
+      </c>
       <c r="C237" t="s">
         <v>301</v>
       </c>
@@ -5010,6 +5452,9 @@
       <c r="A238" t="s">
         <v>347</v>
       </c>
+      <c r="B238">
+        <v>0</v>
+      </c>
       <c r="C238" t="s">
         <v>346</v>
       </c>
@@ -5021,6 +5466,9 @@
       <c r="A239" t="s">
         <v>349</v>
       </c>
+      <c r="B239">
+        <v>0</v>
+      </c>
       <c r="C239" t="s">
         <v>348</v>
       </c>
@@ -5032,6 +5480,9 @@
       <c r="A240" t="s">
         <v>350</v>
       </c>
+      <c r="B240">
+        <v>0</v>
+      </c>
       <c r="C240" t="s">
         <v>346</v>
       </c>
@@ -5043,6 +5494,9 @@
       <c r="A241" t="s">
         <v>352</v>
       </c>
+      <c r="B241">
+        <v>0</v>
+      </c>
       <c r="C241" t="s">
         <v>351</v>
       </c>
@@ -5054,6 +5508,9 @@
       <c r="A242" t="s">
         <v>353</v>
       </c>
+      <c r="B242">
+        <v>0</v>
+      </c>
       <c r="C242" t="s">
         <v>348</v>
       </c>
@@ -5065,6 +5522,9 @@
       <c r="A243" t="s">
         <v>354</v>
       </c>
+      <c r="B243">
+        <v>0</v>
+      </c>
       <c r="C243" t="s">
         <v>346</v>
       </c>
@@ -5076,6 +5536,9 @@
       <c r="A244" t="s">
         <v>355</v>
       </c>
+      <c r="B244">
+        <v>0</v>
+      </c>
       <c r="C244" t="s">
         <v>348</v>
       </c>
@@ -5087,6 +5550,9 @@
       <c r="A245" t="s">
         <v>356</v>
       </c>
+      <c r="B245">
+        <v>0</v>
+      </c>
       <c r="C245" t="s">
         <v>346</v>
       </c>
@@ -5098,6 +5564,9 @@
       <c r="A246" t="s">
         <v>357</v>
       </c>
+      <c r="B246">
+        <v>0</v>
+      </c>
       <c r="C246" t="s">
         <v>348</v>
       </c>
@@ -5109,6 +5578,9 @@
       <c r="A247" t="s">
         <v>358</v>
       </c>
+      <c r="B247">
+        <v>0</v>
+      </c>
       <c r="C247" t="s">
         <v>346</v>
       </c>
@@ -5116,7 +5588,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="248" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="248" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A248" t="s">
         <v>391</v>
       </c>
@@ -5134,6 +5606,9 @@
       <c r="A249" t="s">
         <v>361</v>
       </c>
+      <c r="B249">
+        <v>0</v>
+      </c>
       <c r="C249" t="s">
         <v>360</v>
       </c>
@@ -5145,6 +5620,9 @@
       <c r="A250" t="s">
         <v>363</v>
       </c>
+      <c r="B250">
+        <v>0</v>
+      </c>
       <c r="C250" t="s">
         <v>362</v>
       </c>
@@ -5156,6 +5634,9 @@
       <c r="A251" t="s">
         <v>365</v>
       </c>
+      <c r="B251">
+        <v>0</v>
+      </c>
       <c r="C251" t="s">
         <v>364</v>
       </c>
@@ -5167,6 +5648,9 @@
       <c r="A252" t="s">
         <v>366</v>
       </c>
+      <c r="B252">
+        <v>0</v>
+      </c>
       <c r="C252" t="s">
         <v>301</v>
       </c>
@@ -5178,6 +5662,9 @@
       <c r="A253" t="s">
         <v>368</v>
       </c>
+      <c r="B253">
+        <v>0</v>
+      </c>
       <c r="C253" t="s">
         <v>367</v>
       </c>
@@ -5189,6 +5676,9 @@
       <c r="A254" t="s">
         <v>369</v>
       </c>
+      <c r="B254">
+        <v>0</v>
+      </c>
       <c r="C254" t="s">
         <v>301</v>
       </c>
@@ -5200,6 +5690,9 @@
       <c r="A255" t="s">
         <v>370</v>
       </c>
+      <c r="B255">
+        <v>0</v>
+      </c>
       <c r="C255" t="s">
         <v>360</v>
       </c>
@@ -5211,6 +5704,9 @@
       <c r="A256" t="s">
         <v>371</v>
       </c>
+      <c r="B256">
+        <v>0</v>
+      </c>
       <c r="C256" t="s">
         <v>362</v>
       </c>
@@ -5222,6 +5718,9 @@
       <c r="A257" t="s">
         <v>372</v>
       </c>
+      <c r="B257">
+        <v>0</v>
+      </c>
       <c r="C257" t="s">
         <v>360</v>
       </c>
@@ -5233,6 +5732,9 @@
       <c r="A258" t="s">
         <v>373</v>
       </c>
+      <c r="B258">
+        <v>0</v>
+      </c>
       <c r="C258" t="s">
         <v>362</v>
       </c>
@@ -5244,6 +5746,9 @@
       <c r="A259" t="s">
         <v>374</v>
       </c>
+      <c r="B259">
+        <v>0</v>
+      </c>
       <c r="C259" t="s">
         <v>360</v>
       </c>
@@ -5255,6 +5760,9 @@
       <c r="A260" t="s">
         <v>375</v>
       </c>
+      <c r="B260">
+        <v>0</v>
+      </c>
       <c r="C260" t="s">
         <v>362</v>
       </c>
@@ -5266,6 +5774,9 @@
       <c r="A261" t="s">
         <v>376</v>
       </c>
+      <c r="B261">
+        <v>0</v>
+      </c>
       <c r="C261" t="s">
         <v>360</v>
       </c>
@@ -5277,6 +5788,9 @@
       <c r="A262" t="s">
         <v>377</v>
       </c>
+      <c r="B262">
+        <v>0</v>
+      </c>
       <c r="C262" t="s">
         <v>362</v>
       </c>
@@ -5288,6 +5802,9 @@
       <c r="A263" t="s">
         <v>378</v>
       </c>
+      <c r="B263">
+        <v>0</v>
+      </c>
       <c r="C263" t="s">
         <v>301</v>
       </c>
@@ -5299,6 +5816,9 @@
       <c r="A264" t="s">
         <v>379</v>
       </c>
+      <c r="B264">
+        <v>0</v>
+      </c>
       <c r="C264" t="s">
         <v>362</v>
       </c>
@@ -5310,6 +5830,9 @@
       <c r="A265" t="s">
         <v>381</v>
       </c>
+      <c r="B265">
+        <v>0</v>
+      </c>
       <c r="C265" t="s">
         <v>380</v>
       </c>
@@ -5321,6 +5844,9 @@
       <c r="A266" t="s">
         <v>382</v>
       </c>
+      <c r="B266">
+        <v>0</v>
+      </c>
       <c r="C266" t="s">
         <v>362</v>
       </c>
@@ -5332,6 +5858,9 @@
       <c r="A267" t="s">
         <v>383</v>
       </c>
+      <c r="B267">
+        <v>0</v>
+      </c>
       <c r="C267" t="s">
         <v>367</v>
       </c>
@@ -5343,6 +5872,9 @@
       <c r="A268" t="s">
         <v>384</v>
       </c>
+      <c r="B268">
+        <v>0</v>
+      </c>
       <c r="C268" t="s">
         <v>362</v>
       </c>
@@ -5354,6 +5886,9 @@
       <c r="A269" t="s">
         <v>386</v>
       </c>
+      <c r="B269">
+        <v>0</v>
+      </c>
       <c r="C269" t="s">
         <v>385</v>
       </c>
@@ -5365,6 +5900,9 @@
       <c r="A270" t="s">
         <v>388</v>
       </c>
+      <c r="B270">
+        <v>0</v>
+      </c>
       <c r="C270" t="s">
         <v>387</v>
       </c>
@@ -5376,6 +5914,9 @@
       <c r="A271" t="s">
         <v>389</v>
       </c>
+      <c r="B271">
+        <v>0</v>
+      </c>
       <c r="C271" t="s">
         <v>385</v>
       </c>
@@ -5383,7 +5924,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="272" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="272" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A272" t="s">
         <v>397</v>
       </c>
@@ -5401,6 +5942,9 @@
       <c r="A273" t="s">
         <v>392</v>
       </c>
+      <c r="B273">
+        <v>0</v>
+      </c>
       <c r="C273" t="s">
         <v>184</v>
       </c>
@@ -5408,7 +5952,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="274" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="274" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A274" t="s">
         <v>260</v>
       </c>
@@ -5426,6 +5970,9 @@
       <c r="A275" t="s">
         <v>394</v>
       </c>
+      <c r="B275">
+        <v>0</v>
+      </c>
       <c r="C275" t="s">
         <v>184</v>
       </c>
@@ -5433,7 +5980,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="276" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="276" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A276" t="s">
         <v>208</v>
       </c>
@@ -5451,6 +5998,9 @@
       <c r="A277" t="s">
         <v>396</v>
       </c>
+      <c r="B277">
+        <v>0</v>
+      </c>
       <c r="C277" t="s">
         <v>253</v>
       </c>
@@ -5458,7 +6008,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="278" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="278" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A278" t="s">
         <v>19</v>
       </c>
@@ -5476,6 +6026,9 @@
       <c r="A279" t="s">
         <v>398</v>
       </c>
+      <c r="B279">
+        <v>0</v>
+      </c>
       <c r="C279" t="s">
         <v>303</v>
       </c>
@@ -5487,6 +6040,9 @@
       <c r="A280" t="s">
         <v>400</v>
       </c>
+      <c r="B280">
+        <v>0</v>
+      </c>
       <c r="C280" t="s">
         <v>399</v>
       </c>
@@ -5498,6 +6054,9 @@
       <c r="A281" t="s">
         <v>402</v>
       </c>
+      <c r="B281">
+        <v>0</v>
+      </c>
       <c r="C281" t="s">
         <v>401</v>
       </c>
@@ -5509,6 +6068,9 @@
       <c r="A282" t="s">
         <v>404</v>
       </c>
+      <c r="B282">
+        <v>0</v>
+      </c>
       <c r="C282" t="s">
         <v>403</v>
       </c>
@@ -5520,6 +6082,9 @@
       <c r="A283" t="s">
         <v>406</v>
       </c>
+      <c r="B283">
+        <v>0</v>
+      </c>
       <c r="C283" t="s">
         <v>405</v>
       </c>
@@ -5531,6 +6096,9 @@
       <c r="A284" t="s">
         <v>407</v>
       </c>
+      <c r="B284">
+        <v>0</v>
+      </c>
       <c r="C284" t="s">
         <v>184</v>
       </c>
@@ -5539,6 +6107,11 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="B1:B284" xr:uid="{D2BB3080-F62C-E547-BD6B-DD595C818CD3}">
+    <filterColumn colId="0">
+      <filters blank="1"/>
+    </filterColumn>
+  </autoFilter>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:D278">
     <sortCondition ref="C1:C284"/>
   </sortState>
